--- a/config_4.27/task_server.xlsx
+++ b/config_4.27/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="479">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2044,6 +2044,98 @@
     <t>1,2,3,4,5,6,107,108,110,101,102,103,104,105,106,22,23,24,25,26,27,34,111,10330,85,86,87,88,89,109,10044,10045,90,10189,10490,10491,10493,10494,10495,10492</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>三国消消乐收集战船</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐收集弓箭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,-1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_game_num</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_free_game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_free_game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2219,7 +2311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2446,9 +2538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2484,6 +2573,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2761,11 +2856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="A99:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6309,6 +6404,76 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="11">
+        <v>99</v>
+      </c>
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="11">
+        <v>99</v>
+      </c>
+      <c r="G99" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1</v>
+      </c>
+      <c r="I99" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J99" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K99" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="11">
+        <v>100</v>
+      </c>
+      <c r="B100" s="11">
+        <v>1</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="11">
+        <v>100</v>
+      </c>
+      <c r="G100" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1</v>
+      </c>
+      <c r="I100" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J100" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K100" s="11">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6318,11 +6483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6331,7 +6496,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="88" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="87" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -6358,7 +6523,7 @@
       <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="84" t="s">
         <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6389,7 +6554,7 @@
         <v>147</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="85" t="s">
         <v>148</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -6416,7 +6581,7 @@
         <v>147</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="85" t="s">
         <v>150</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -6443,7 +6608,7 @@
         <v>147</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="85" t="s">
         <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -6470,7 +6635,7 @@
         <v>152</v>
       </c>
       <c r="G5" s="19"/>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="85" t="s">
         <v>153</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -6497,7 +6662,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="87">
+      <c r="H6" s="86">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -6524,7 +6689,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="87">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -6550,7 +6715,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="87">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -6576,7 +6741,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="87">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -6603,7 +6768,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="87">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -6629,7 +6794,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="87">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -6655,7 +6820,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="87">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -6681,7 +6846,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="87">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -6707,7 +6872,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="87">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -6733,7 +6898,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="87">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -6759,7 +6924,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="87">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -6785,7 +6950,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="87">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -6811,7 +6976,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="87">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -6837,7 +7002,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="87">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -6863,7 +7028,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="87">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -6889,7 +7054,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="87">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -6915,7 +7080,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="87">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -6941,7 +7106,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="87">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -6967,7 +7132,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="87">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -6993,7 +7158,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="87">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -7019,7 +7184,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="87">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -7045,7 +7210,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="87">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -7071,7 +7236,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="87">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -7097,7 +7262,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="87">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -7123,7 +7288,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="87">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -7149,7 +7314,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="87">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -7175,7 +7340,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="88">
+      <c r="H32" s="87">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -7201,7 +7366,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="88">
+      <c r="H33" s="87">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -7227,7 +7392,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="88">
+      <c r="H34" s="87">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -7253,7 +7418,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="87">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -7279,7 +7444,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="88">
+      <c r="H36" s="87">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -7305,7 +7470,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="87">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -7331,7 +7496,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="88">
+      <c r="H38" s="87">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -7357,7 +7522,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="87">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -7383,7 +7548,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="88">
+      <c r="H40" s="87">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -7409,7 +7574,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="87">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -7435,7 +7600,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="87">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -7461,7 +7626,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="88">
+      <c r="H43" s="87">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -7487,7 +7652,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="88">
+      <c r="H44" s="87">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -7513,7 +7678,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="87">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -7539,7 +7704,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="87">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -7565,7 +7730,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="87">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -7591,7 +7756,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H48" s="87">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -7617,7 +7782,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="87">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -7643,7 +7808,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H50" s="87">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -7670,7 +7835,7 @@
         <v>162</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="88" t="s">
+      <c r="H51" s="87" t="s">
         <v>163</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -7696,7 +7861,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="88">
+      <c r="H52" s="87">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -7722,7 +7887,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="88">
+      <c r="H53" s="87">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -7748,7 +7913,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="88">
+      <c r="H54" s="87">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -7774,7 +7939,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="88">
+      <c r="H55" s="87">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -7800,7 +7965,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="88">
+      <c r="H56" s="87">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -7826,7 +7991,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="88">
+      <c r="H57" s="87">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -7944,7 +8109,7 @@
       <c r="F62" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H62" s="88" t="s">
+      <c r="H62" s="87" t="s">
         <v>168</v>
       </c>
     </row>
@@ -8036,7 +8201,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="88">
+      <c r="H66" s="87">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -8062,7 +8227,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="88">
+      <c r="H67" s="87">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -8115,7 +8280,7 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="88">
+      <c r="H69" s="87">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -8142,7 +8307,7 @@
         <v>173</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="89" t="s">
+      <c r="H70" s="88" t="s">
         <v>375</v>
       </c>
       <c r="I70" s="16" t="s">
@@ -8169,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="H71" s="90">
+      <c r="H71" s="89">
         <v>88</v>
       </c>
       <c r="I71" s="15" t="s">
@@ -8196,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="H72" s="90">
+      <c r="H72" s="89">
         <v>89</v>
       </c>
       <c r="I72" s="15" t="s">
@@ -8223,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="90">
+      <c r="H73" s="89">
         <v>90</v>
       </c>
       <c r="I73" s="15" t="s">
@@ -8250,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="90">
+      <c r="H74" s="89">
         <v>91</v>
       </c>
       <c r="I74" s="15" t="s">
@@ -8277,7 +8442,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="90"/>
+      <c r="H75" s="89"/>
       <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" s="33" customFormat="1">
@@ -8300,7 +8465,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="15"/>
-      <c r="H76" s="90"/>
+      <c r="H76" s="89"/>
       <c r="I76" s="15"/>
     </row>
     <row r="77" spans="1:9" s="33" customFormat="1">
@@ -8325,7 +8490,7 @@
       <c r="G77" s="15">
         <v>500000000</v>
       </c>
-      <c r="H77" s="90">
+      <c r="H77" s="89">
         <v>92</v>
       </c>
       <c r="I77" s="15" t="s">
@@ -8354,7 +8519,7 @@
       <c r="G78" s="15">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="90">
+      <c r="H78" s="89">
         <v>93</v>
       </c>
       <c r="I78" s="15" t="s">
@@ -8377,7 +8542,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="91">
+      <c r="H79" s="90">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -8400,7 +8565,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="91">
+      <c r="H80" s="90">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -8423,7 +8588,7 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="91">
+      <c r="H81" s="90">
         <v>96</v>
       </c>
       <c r="I81" s="52" t="s">
@@ -8452,7 +8617,7 @@
       <c r="G82" s="18">
         <v>500000000</v>
       </c>
-      <c r="H82" s="92">
+      <c r="H82" s="91">
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
@@ -8479,7 +8644,7 @@
       <c r="G83" s="39">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="93">
+      <c r="H83" s="92">
         <v>98</v>
       </c>
       <c r="I83" s="39" t="s">
@@ -8506,7 +8671,7 @@
       <c r="G84" s="39">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="93">
+      <c r="H84" s="92">
         <v>99</v>
       </c>
       <c r="I84" s="39" t="s">
@@ -8533,7 +8698,7 @@
       <c r="G85" s="39">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="93">
+      <c r="H85" s="92">
         <v>100</v>
       </c>
       <c r="I85" s="39" t="s">
@@ -8680,7 +8845,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="91">
+      <c r="H91" s="90">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -8703,7 +8868,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="91">
+      <c r="H92" s="90">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -8726,7 +8891,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="91">
+      <c r="H93" s="90">
         <v>109</v>
       </c>
       <c r="I93" s="52" t="s">
@@ -8792,7 +8957,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="88">
+      <c r="H96" s="87">
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
@@ -8831,10 +8996,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="84" t="s">
+      <c r="F98" s="83" t="s">
         <v>456</v>
       </c>
-      <c r="H98" s="84" t="s">
+      <c r="H98" s="83" t="s">
         <v>461</v>
       </c>
       <c r="I98" s="42" t="s">
@@ -8859,6 +9024,46 @@
       </c>
       <c r="I99" s="42" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
+      <c r="D100" s="4">
+        <v>98</v>
+      </c>
+      <c r="F100" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="D101" s="4">
+        <v>99</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="H101" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I101" s="42" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8870,10 +9075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10793,6 +10998,34 @@
         <v>36</v>
       </c>
     </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>98</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>99</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="D118" s="11">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10801,11 +11034,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11976,10 +12209,44 @@
       <c r="C68" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="93" t="s">
         <v>468</v>
       </c>
       <c r="E68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>37</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>38</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>478</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4">
         <v>2</v>
       </c>
     </row>
@@ -11991,11 +12258,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14901,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:7">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -14918,7 +15185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:7">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -14935,7 +15202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:7">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -14952,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:7">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -14969,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:7">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -14986,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:7">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -15003,7 +15270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:7">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -15020,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:7">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -15037,7 +15304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -15054,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:7">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -15071,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:7">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -15088,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:7">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -15105,7 +15372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:7">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -15121,6 +15388,25 @@
       <c r="E173" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="82">
+        <v>156</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="D174" s="82">
+        <v>10</v>
+      </c>
+      <c r="E174" s="82">
+        <v>1</v>
+      </c>
+      <c r="F174" s="82"/>
+      <c r="G174" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -15266,10 +15552,10 @@
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="94">
         <v>1</v>
       </c>
     </row>
@@ -15277,8 +15563,8 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -15328,10 +15614,10 @@
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="94" t="s">
         <v>275</v>
       </c>
     </row>
@@ -15339,17 +15625,17 @@
       <c r="A9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="94" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="94">
         <v>1</v>
       </c>
     </row>
@@ -15357,8 +15643,8 @@
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -15463,10 +15749,10 @@
       <c r="A21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="95">
         <v>1</v>
       </c>
     </row>
@@ -15474,8 +15760,8 @@
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -48481,10 +48767,10 @@
       <c r="A45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="94" t="s">
         <v>275</v>
       </c>
     </row>
@@ -48492,8 +48778,8 @@
       <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -48596,16 +48882,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_4.27/task_server.xlsx
+++ b/config_4.27/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2858,9 +2858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="A99:E100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6409,7 +6409,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>469</v>
@@ -6444,7 +6444,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>470</v>
@@ -12260,8 +12260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
@@ -48882,16 +48882,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_4.27/task_server.xlsx
+++ b/config_4.27/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2858,9 +2858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6334,7 +6334,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:12">
       <c r="A97" s="11">
         <v>97</v>
       </c>
@@ -6368,8 +6368,11 @@
       <c r="K97" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="11">
         <v>98</v>
       </c>
@@ -6403,8 +6406,11 @@
       <c r="K98" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="11">
         <v>99</v>
       </c>
@@ -6438,8 +6444,11 @@
       <c r="K99" s="11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="11">
         <v>100</v>
       </c>
@@ -6472,6 +6481,9 @@
       </c>
       <c r="K100" s="11">
         <v>-1</v>
+      </c>
+      <c r="L100" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -48882,16 +48894,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
